--- a/任务计划.xlsx
+++ b/任务计划.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>中旅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客服信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中旅订单信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待完成任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接入微信支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单管理员后台查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,15 +130,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信订单列表展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾客在线下单、订单转供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾客订单列表查询、附件下载</t>
+    <t>王元元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库准备vivian，xml问题整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商、客服订单类型、供应商密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品维护(包括详情)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做卫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表微信展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多客服下订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信下订单，跟廖彦龙沟通下订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据准备完成，xml问题整理未完成，需额外1个工作时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml与kebe确认字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，延后40分钟,中间有20分钟被打扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被PR报表打扰1多个小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情已做，列表未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信订单列表展示，部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避风塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避风塘修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多客服下订单，客服处理订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入微信支付，修改0916文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百雀羚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码系统检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖彦龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,9 +279,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +300,15 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -219,23 +344,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,584 +687,912 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
-        <v>20140916</v>
+        <v>20140918</v>
       </c>
       <c r="C2" s="2">
-        <v>0.875</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>20140916</v>
+        <v>20140918</v>
       </c>
       <c r="C3" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20140918</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20140918</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20140916</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20140916</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
-        <v>20140917</v>
+        <v>20140918</v>
       </c>
       <c r="C6" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="8">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5">
-        <v>20140917</v>
+        <v>20140918</v>
       </c>
       <c r="C7" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20140918</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10">
+        <f>AVERAGE(H2:H8)</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20140919</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20140919</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20140919</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20140919</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20140919</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="C38" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="C36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="7:11">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="7:11">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="7:11">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,7 +1606,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1149,82 +1620,86 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="11">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1237,32 +1712,36 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="11">
+        <v>0.8</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1275,13 +1754,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1294,13 +1773,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1313,13 +1792,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1332,13 +1811,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1350,9 +1829,15 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1363,9 +1848,15 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1376,9 +1867,15 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
